--- a/Code/Results/Cases/Case_5_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.47247854352279</v>
+        <v>12.82367325436917</v>
       </c>
       <c r="C2">
-        <v>11.00282753891541</v>
+        <v>10.80812076374232</v>
       </c>
       <c r="D2">
-        <v>3.288539833309589</v>
+        <v>5.76211399874259</v>
       </c>
       <c r="E2">
-        <v>8.812427920124577</v>
+        <v>12.26887857873896</v>
       </c>
       <c r="F2">
-        <v>44.42181266799456</v>
+        <v>49.62168194613091</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>28.87421712462816</v>
+        <v>33.58131821716631</v>
       </c>
       <c r="J2">
-        <v>6.953693238372316</v>
+        <v>10.53500721825178</v>
       </c>
       <c r="K2">
-        <v>12.13354126666997</v>
+        <v>14.33777012433201</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.58236503585882</v>
+        <v>12.70464726548083</v>
       </c>
       <c r="C3">
-        <v>10.34798543002574</v>
+        <v>10.67941146970937</v>
       </c>
       <c r="D3">
-        <v>3.110374020657919</v>
+        <v>5.784470725151469</v>
       </c>
       <c r="E3">
-        <v>8.458704953450843</v>
+        <v>12.25277832548053</v>
       </c>
       <c r="F3">
-        <v>42.95447954273916</v>
+        <v>49.3387827644138</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>28.18425171244041</v>
+        <v>33.44895099559951</v>
       </c>
       <c r="J3">
-        <v>6.831032713201784</v>
+        <v>10.53941767323601</v>
       </c>
       <c r="K3">
-        <v>11.40474411629751</v>
+        <v>14.26200877368644</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.00736102086201</v>
+        <v>12.63556066275467</v>
       </c>
       <c r="C4">
-        <v>9.93463670986031</v>
+        <v>10.60304012658475</v>
       </c>
       <c r="D4">
-        <v>2.995549809577883</v>
+        <v>5.799911495454372</v>
       </c>
       <c r="E4">
-        <v>8.241569034784256</v>
+        <v>12.2459384384422</v>
       </c>
       <c r="F4">
-        <v>42.05766452606039</v>
+        <v>49.17254849473664</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>27.7679292707946</v>
+        <v>33.37163555900018</v>
       </c>
       <c r="J4">
-        <v>6.759028812443823</v>
+        <v>10.54381052119563</v>
       </c>
       <c r="K4">
-        <v>10.99404173826013</v>
+        <v>14.21964016793561</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.76580008458468</v>
+        <v>12.60844648370843</v>
       </c>
       <c r="C5">
-        <v>9.763493872969658</v>
+        <v>10.57262339028261</v>
       </c>
       <c r="D5">
-        <v>2.947394533725733</v>
+        <v>5.806634368111398</v>
       </c>
       <c r="E5">
-        <v>8.153211289643453</v>
+        <v>12.24391928002736</v>
       </c>
       <c r="F5">
-        <v>41.69353634376318</v>
+        <v>49.10672361304903</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>27.6001648092841</v>
+        <v>33.34113651586447</v>
       </c>
       <c r="J5">
-        <v>6.730517363372791</v>
+        <v>10.54602432384748</v>
       </c>
       <c r="K5">
-        <v>10.82465458994542</v>
+        <v>14.20343390797324</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.72524938124077</v>
+        <v>12.6040079184835</v>
       </c>
       <c r="C6">
-        <v>9.734917425762475</v>
+        <v>10.5676163612037</v>
       </c>
       <c r="D6">
-        <v>2.93931616402464</v>
+        <v>5.807776695825363</v>
       </c>
       <c r="E6">
-        <v>8.138550811770187</v>
+        <v>12.2436304490014</v>
       </c>
       <c r="F6">
-        <v>41.63316266688308</v>
+        <v>49.09591030950764</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>27.57242335863797</v>
+        <v>33.33613336489238</v>
       </c>
       <c r="J6">
-        <v>6.725833173170096</v>
+        <v>10.54641751159059</v>
       </c>
       <c r="K6">
-        <v>10.79641219900738</v>
+        <v>14.20080728168058</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.00413267339282</v>
+        <v>12.63519074017636</v>
       </c>
       <c r="C7">
-        <v>9.932339340783875</v>
+        <v>10.60262701260498</v>
       </c>
       <c r="D7">
-        <v>2.99490588619923</v>
+        <v>5.800000419265411</v>
       </c>
       <c r="E7">
-        <v>8.240376736881752</v>
+        <v>12.24590809460755</v>
       </c>
       <c r="F7">
-        <v>42.05274796733987</v>
+        <v>49.17165294624712</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>27.76565901755669</v>
+        <v>33.37122014326444</v>
       </c>
       <c r="J7">
-        <v>6.758640936047435</v>
+        <v>10.54383866190991</v>
       </c>
       <c r="K7">
-        <v>10.99176523152087</v>
+        <v>14.21941729586253</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.17142428580551</v>
+        <v>12.78182507176832</v>
       </c>
       <c r="C8">
-        <v>10.77944590711469</v>
+        <v>10.76321317381672</v>
       </c>
       <c r="D8">
-        <v>3.228235149691467</v>
+        <v>5.769466781920062</v>
       </c>
       <c r="E8">
-        <v>8.690517510397905</v>
+        <v>12.26269661963071</v>
       </c>
       <c r="F8">
-        <v>43.91518261347144</v>
+        <v>49.52261298582634</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>28.63482592339399</v>
+        <v>33.5348640517654</v>
       </c>
       <c r="J8">
-        <v>6.910711930056094</v>
+        <v>10.53617830776234</v>
       </c>
       <c r="K8">
-        <v>11.84165297976695</v>
+        <v>14.31079653714764</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.23870756598618</v>
+        <v>13.09946322363903</v>
       </c>
       <c r="C9">
-        <v>12.34731814293133</v>
+        <v>11.09749836741337</v>
       </c>
       <c r="D9">
-        <v>3.642823203195617</v>
+        <v>5.723197490012542</v>
       </c>
       <c r="E9">
-        <v>9.569440992847223</v>
+        <v>12.31965864233347</v>
       </c>
       <c r="F9">
-        <v>47.589485092568</v>
+        <v>50.26823920801485</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>30.39563814758122</v>
+        <v>33.8865981869458</v>
       </c>
       <c r="J9">
-        <v>7.235288764095895</v>
+        <v>10.534520002061</v>
       </c>
       <c r="K9">
-        <v>13.84660347198507</v>
+        <v>14.52213189331218</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.62866895432912</v>
+        <v>13.34888342351625</v>
       </c>
       <c r="C10">
-        <v>13.46236356707293</v>
+        <v>11.3525554958027</v>
       </c>
       <c r="D10">
-        <v>3.921631708520257</v>
+        <v>5.697508689806755</v>
       </c>
       <c r="E10">
-        <v>10.20850020491359</v>
+        <v>12.37595531932182</v>
       </c>
       <c r="F10">
-        <v>50.29181783940153</v>
+        <v>50.84839111424846</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>31.7225181202603</v>
+        <v>34.16297236067171</v>
       </c>
       <c r="J10">
-        <v>7.490094851880162</v>
+        <v>10.54143688829296</v>
       </c>
       <c r="K10">
-        <v>15.19584190273852</v>
+        <v>14.69584022476559</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.23458032304251</v>
+        <v>13.46532206065583</v>
       </c>
       <c r="C11">
-        <v>13.98631311342175</v>
+        <v>11.47012957071416</v>
       </c>
       <c r="D11">
-        <v>4.043020076428352</v>
+        <v>5.687626214346906</v>
       </c>
       <c r="E11">
-        <v>10.49722921546551</v>
+        <v>12.40464562244898</v>
       </c>
       <c r="F11">
-        <v>51.52073736960774</v>
+        <v>51.11872631340367</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>32.33351110294345</v>
+        <v>34.29240080880835</v>
       </c>
       <c r="J11">
-        <v>7.609671563331104</v>
+        <v>10.54634492011859</v>
       </c>
       <c r="K11">
-        <v>15.78440877128689</v>
+        <v>14.77859378814999</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.4603722386796</v>
+        <v>13.50979812393752</v>
       </c>
       <c r="C12">
-        <v>14.18216137079455</v>
+        <v>11.51483145700966</v>
       </c>
       <c r="D12">
-        <v>4.088220053226676</v>
+        <v>5.684143231824011</v>
       </c>
       <c r="E12">
-        <v>10.60625861818496</v>
+        <v>12.41594701778058</v>
       </c>
       <c r="F12">
-        <v>51.98603965207302</v>
+        <v>51.22196350732769</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>32.56598392972403</v>
+        <v>34.34192600303662</v>
       </c>
       <c r="J12">
-        <v>7.655493072967444</v>
+        <v>10.54845605109824</v>
       </c>
       <c r="K12">
-        <v>16.0038086707259</v>
+        <v>14.81044227488538</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.41190400272285</v>
+        <v>13.50020307610806</v>
       </c>
       <c r="C13">
-        <v>14.14009379242761</v>
+        <v>11.50519682465429</v>
       </c>
       <c r="D13">
-        <v>4.078519270146859</v>
+        <v>5.684881823784922</v>
       </c>
       <c r="E13">
-        <v>10.582790912239</v>
+        <v>12.41349372621859</v>
       </c>
       <c r="F13">
-        <v>51.88583060115725</v>
+        <v>51.19969187823919</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>32.51586671531152</v>
+        <v>34.3312373464147</v>
       </c>
       <c r="J13">
-        <v>7.645600282142364</v>
+        <v>10.54799016160064</v>
       </c>
       <c r="K13">
-        <v>15.95670914547615</v>
+        <v>14.80356079658742</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25322872364928</v>
+        <v>13.4689737087073</v>
       </c>
       <c r="C14">
-        <v>14.00247625771675</v>
+        <v>11.4738038785141</v>
       </c>
       <c r="D14">
-        <v>4.046753981254532</v>
+        <v>5.687334471155041</v>
       </c>
       <c r="E14">
-        <v>10.50620531067296</v>
+        <v>12.40556667337917</v>
       </c>
       <c r="F14">
-        <v>51.55901910706343</v>
+        <v>51.127202649197</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>32.35261433467428</v>
+        <v>34.29646509946354</v>
       </c>
       <c r="J14">
-        <v>7.613430399072701</v>
+        <v>10.54651354707115</v>
       </c>
       <c r="K14">
-        <v>15.80252773492662</v>
+        <v>14.78120387912789</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.15556416158633</v>
+        <v>13.44989340199574</v>
       </c>
       <c r="C15">
-        <v>13.91785183308488</v>
+        <v>11.45459684143361</v>
       </c>
       <c r="D15">
-        <v>4.027197429041086</v>
+        <v>5.688870553743785</v>
       </c>
       <c r="E15">
-        <v>10.45925429137278</v>
+        <v>12.40076784677548</v>
       </c>
       <c r="F15">
-        <v>51.35883048382959</v>
+        <v>51.08291213005906</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>32.25276290820617</v>
+        <v>34.27523237399387</v>
       </c>
       <c r="J15">
-        <v>7.593796287142506</v>
+        <v>10.54564194523873</v>
       </c>
       <c r="K15">
-        <v>15.70763889612036</v>
+        <v>14.76757546846945</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.588551955288</v>
+        <v>13.34132996057756</v>
       </c>
       <c r="C16">
-        <v>13.42775741952387</v>
+        <v>11.34489917373827</v>
       </c>
       <c r="D16">
-        <v>3.913590426332708</v>
+        <v>5.698190821969066</v>
       </c>
       <c r="E16">
-        <v>10.18958894480697</v>
+        <v>12.37414183263199</v>
       </c>
       <c r="F16">
-        <v>50.21149500012945</v>
+        <v>50.83084851617996</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>31.68273976191733</v>
+        <v>34.15458682578272</v>
       </c>
       <c r="J16">
-        <v>7.482354998744678</v>
+        <v>10.54115152320783</v>
       </c>
       <c r="K16">
-        <v>15.1568826969488</v>
+        <v>14.69050506165092</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.23404557334749</v>
+        <v>13.27546039875709</v>
       </c>
       <c r="C17">
-        <v>13.12696922610573</v>
+        <v>11.27796854807897</v>
       </c>
       <c r="D17">
-        <v>3.842512242537764</v>
+        <v>5.704370418745464</v>
       </c>
       <c r="E17">
-        <v>10.02362900624721</v>
+        <v>12.35859259368253</v>
       </c>
       <c r="F17">
-        <v>49.50751495289627</v>
+        <v>50.67782082162494</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>31.33496108692449</v>
+        <v>34.08151008609278</v>
       </c>
       <c r="J17">
-        <v>7.414935839562323</v>
+        <v>10.538847480401</v>
       </c>
       <c r="K17">
-        <v>14.81265568525327</v>
+        <v>14.64416327253779</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.02764978291823</v>
+        <v>13.23785680620009</v>
       </c>
       <c r="C18">
-        <v>12.96414402204124</v>
+        <v>11.23962004424559</v>
       </c>
       <c r="D18">
-        <v>3.801116515609088</v>
+        <v>5.708094520389976</v>
       </c>
       <c r="E18">
-        <v>9.927986668533949</v>
+        <v>12.34993944710568</v>
       </c>
       <c r="F18">
-        <v>49.1025640856252</v>
+        <v>50.5904112167123</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>31.13561934083363</v>
+        <v>34.03982817041989</v>
       </c>
       <c r="J18">
-        <v>7.376501919185205</v>
+        <v>10.53768811043357</v>
       </c>
       <c r="K18">
-        <v>14.61228308506331</v>
+        <v>14.61786162931312</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.95733544669905</v>
+        <v>13.22517480871217</v>
       </c>
       <c r="C19">
-        <v>12.90880697644551</v>
+        <v>11.22666268415799</v>
       </c>
       <c r="D19">
-        <v>3.787012025507125</v>
+        <v>5.709384593682311</v>
       </c>
       <c r="E19">
-        <v>9.8955727406212</v>
+        <v>12.34705968346387</v>
       </c>
       <c r="F19">
-        <v>48.96544919714883</v>
+        <v>50.56092191466207</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>31.06824363348283</v>
+        <v>34.02577605566789</v>
       </c>
       <c r="J19">
-        <v>7.363547574717499</v>
+        <v>10.53732407341582</v>
       </c>
       <c r="K19">
-        <v>14.54402693083034</v>
+        <v>14.60901771337336</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.27204043061876</v>
+        <v>13.2824433761639</v>
       </c>
       <c r="C20">
-        <v>13.1570063165449</v>
+        <v>11.28507840244622</v>
       </c>
       <c r="D20">
-        <v>3.850131671999836</v>
+        <v>5.703695020556138</v>
       </c>
       <c r="E20">
-        <v>10.04131525038117</v>
+        <v>12.36021782663762</v>
       </c>
       <c r="F20">
-        <v>49.58245927449227</v>
+        <v>50.69404837011796</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>31.37191096936289</v>
+        <v>34.08925315400219</v>
       </c>
       <c r="J20">
-        <v>7.422077061547358</v>
+        <v>10.53907558927601</v>
       </c>
       <c r="K20">
-        <v>14.84954477662236</v>
+        <v>14.64906008822743</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.29993346069638</v>
+        <v>13.47813648647527</v>
       </c>
       <c r="C21">
-        <v>14.04296634479938</v>
+        <v>11.48302022954024</v>
       </c>
       <c r="D21">
-        <v>4.056104898627106</v>
+        <v>5.686607032723112</v>
       </c>
       <c r="E21">
-        <v>10.52870872951649</v>
+        <v>12.40788323164412</v>
       </c>
       <c r="F21">
-        <v>51.6550129623085</v>
+        <v>51.14847141603823</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>32.40053510507017</v>
+        <v>34.30666477420658</v>
       </c>
       <c r="J21">
-        <v>7.622864672204489</v>
+        <v>10.54694041657399</v>
       </c>
       <c r="K21">
-        <v>15.84790768904243</v>
+        <v>14.78775697173695</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.95050128170557</v>
+        <v>13.60824641611644</v>
       </c>
       <c r="C22">
-        <v>14.60838419555685</v>
+        <v>11.61341104720637</v>
       </c>
       <c r="D22">
-        <v>4.186258037490956</v>
+        <v>5.676950339485074</v>
       </c>
       <c r="E22">
-        <v>10.84546975494629</v>
+        <v>12.44157930171674</v>
       </c>
       <c r="F22">
-        <v>53.00923086452264</v>
+        <v>51.45049017528974</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>33.07927142982942</v>
+        <v>34.45173907222832</v>
       </c>
       <c r="J22">
-        <v>7.757251335054061</v>
+        <v>10.55355223919295</v>
       </c>
       <c r="K22">
-        <v>16.48020443287887</v>
+        <v>14.88137248592563</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.60517215248041</v>
+        <v>13.53861661795755</v>
       </c>
       <c r="C23">
-        <v>14.30792656747228</v>
+        <v>11.54373948348968</v>
       </c>
       <c r="D23">
-        <v>4.117195245250077</v>
+        <v>5.681966052215012</v>
       </c>
       <c r="E23">
-        <v>10.67657281230903</v>
+        <v>12.42336443565161</v>
       </c>
       <c r="F23">
-        <v>52.28647104821139</v>
+        <v>51.28885610658492</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>32.71640341327587</v>
+        <v>34.37404380828264</v>
       </c>
       <c r="J23">
-        <v>7.685231517205721</v>
+        <v>10.54988900472107</v>
       </c>
       <c r="K23">
-        <v>16.14453076688801</v>
+        <v>14.83114504497181</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.25487101892078</v>
+        <v>13.279285541068</v>
       </c>
       <c r="C24">
-        <v>13.14343051782158</v>
+        <v>11.28186362655091</v>
       </c>
       <c r="D24">
-        <v>3.846688585928588</v>
+        <v>5.703999834285578</v>
       </c>
       <c r="E24">
-        <v>10.03332001320286</v>
+        <v>12.35948216654467</v>
       </c>
       <c r="F24">
-        <v>49.54857764086844</v>
+        <v>50.68671012168493</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>31.35520405866121</v>
+        <v>34.08575148084675</v>
       </c>
       <c r="J24">
-        <v>7.418847499826235</v>
+        <v>10.5389719464575</v>
       </c>
       <c r="K24">
-        <v>14.83287492880536</v>
+        <v>14.64684517417802</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70257616746872</v>
+        <v>13.01054333336251</v>
       </c>
       <c r="C25">
-        <v>11.93354202056186</v>
+        <v>11.00523134630721</v>
       </c>
       <c r="D25">
-        <v>3.53523616947347</v>
+        <v>5.734256494136774</v>
       </c>
       <c r="E25">
-        <v>9.332594490055241</v>
+        <v>12.30169429674718</v>
       </c>
       <c r="F25">
-        <v>46.59442371227563</v>
+        <v>50.06064657146927</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>29.91343448924633</v>
+        <v>33.78822663366952</v>
       </c>
       <c r="J25">
-        <v>7.144638645237836</v>
+        <v>10.53353860075532</v>
       </c>
       <c r="K25">
-        <v>13.326472876334</v>
+        <v>14.46163248661007</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.82367325436917</v>
+        <v>12.47247854352286</v>
       </c>
       <c r="C2">
-        <v>10.80812076374232</v>
+        <v>11.00282753891538</v>
       </c>
       <c r="D2">
-        <v>5.76211399874259</v>
+        <v>3.288539833309551</v>
       </c>
       <c r="E2">
-        <v>12.26887857873896</v>
+        <v>8.812427920124616</v>
       </c>
       <c r="F2">
-        <v>49.62168194613091</v>
+        <v>44.4218126679945</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>33.58131821716631</v>
+        <v>28.87421712462806</v>
       </c>
       <c r="J2">
-        <v>10.53500721825178</v>
+        <v>6.953693238372372</v>
       </c>
       <c r="K2">
-        <v>14.33777012433201</v>
+        <v>12.13354126666996</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.70464726548083</v>
+        <v>11.58236503585883</v>
       </c>
       <c r="C3">
-        <v>10.67941146970937</v>
+        <v>10.34798543002568</v>
       </c>
       <c r="D3">
-        <v>5.784470725151469</v>
+        <v>3.110374020657863</v>
       </c>
       <c r="E3">
-        <v>12.25277832548053</v>
+        <v>8.458704953450853</v>
       </c>
       <c r="F3">
-        <v>49.3387827644138</v>
+        <v>42.95447954273916</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>33.44895099559951</v>
+        <v>28.18425171244041</v>
       </c>
       <c r="J3">
-        <v>10.53941767323601</v>
+        <v>6.831032713201806</v>
       </c>
       <c r="K3">
-        <v>14.26200877368644</v>
+        <v>11.40474411629752</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.63556066275467</v>
+        <v>11.007361020862</v>
       </c>
       <c r="C4">
-        <v>10.60304012658475</v>
+        <v>9.934636709860275</v>
       </c>
       <c r="D4">
-        <v>5.799911495454372</v>
+        <v>2.995549809577862</v>
       </c>
       <c r="E4">
-        <v>12.2459384384422</v>
+        <v>8.241569034784224</v>
       </c>
       <c r="F4">
-        <v>49.17254849473664</v>
+        <v>42.05766452606041</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>33.37163555900018</v>
+        <v>27.7679292707946</v>
       </c>
       <c r="J4">
-        <v>10.54381052119563</v>
+        <v>6.759028812443844</v>
       </c>
       <c r="K4">
-        <v>14.21964016793561</v>
+        <v>10.99404173826014</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60844648370843</v>
+        <v>10.76580008458469</v>
       </c>
       <c r="C5">
-        <v>10.57262339028261</v>
+        <v>9.763493872969651</v>
       </c>
       <c r="D5">
-        <v>5.806634368111398</v>
+        <v>2.947394533725571</v>
       </c>
       <c r="E5">
-        <v>12.24391928002736</v>
+        <v>8.153211289643501</v>
       </c>
       <c r="F5">
-        <v>49.10672361304903</v>
+        <v>41.69353634376329</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>33.34113651586447</v>
+        <v>27.60016480928413</v>
       </c>
       <c r="J5">
-        <v>10.54602432384748</v>
+        <v>6.730517363372806</v>
       </c>
       <c r="K5">
-        <v>14.20343390797324</v>
+        <v>10.82465458994542</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.6040079184835</v>
+        <v>10.72524938124085</v>
       </c>
       <c r="C6">
-        <v>10.5676163612037</v>
+        <v>9.734917425762406</v>
       </c>
       <c r="D6">
-        <v>5.807776695825363</v>
+        <v>2.939316164024584</v>
       </c>
       <c r="E6">
-        <v>12.2436304490014</v>
+        <v>8.138550811770132</v>
       </c>
       <c r="F6">
-        <v>49.09591030950764</v>
+        <v>41.63316266688265</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>33.33613336489238</v>
+        <v>27.57242335863768</v>
       </c>
       <c r="J6">
-        <v>10.54641751159059</v>
+        <v>6.725833173170032</v>
       </c>
       <c r="K6">
-        <v>14.20080728168058</v>
+        <v>10.79641219900729</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.63519074017636</v>
+        <v>11.0041326733929</v>
       </c>
       <c r="C7">
-        <v>10.60262701260498</v>
+        <v>9.932339340783848</v>
       </c>
       <c r="D7">
-        <v>5.800000419265411</v>
+        <v>2.994905886199385</v>
       </c>
       <c r="E7">
-        <v>12.24590809460755</v>
+        <v>8.240376736881741</v>
       </c>
       <c r="F7">
-        <v>49.17165294624712</v>
+        <v>42.05274796733976</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>33.37122014326444</v>
+        <v>27.76565901755664</v>
       </c>
       <c r="J7">
-        <v>10.54383866190991</v>
+        <v>6.758640936047517</v>
       </c>
       <c r="K7">
-        <v>14.21941729586253</v>
+        <v>10.99176523152084</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.78182507176832</v>
+        <v>12.17142428580549</v>
       </c>
       <c r="C8">
-        <v>10.76321317381672</v>
+        <v>10.77944590711468</v>
       </c>
       <c r="D8">
-        <v>5.769466781920062</v>
+        <v>3.228235149691473</v>
       </c>
       <c r="E8">
-        <v>12.26269661963071</v>
+        <v>8.690517510397882</v>
       </c>
       <c r="F8">
-        <v>49.52261298582634</v>
+        <v>43.91518261347167</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>33.5348640517654</v>
+        <v>28.63482592339419</v>
       </c>
       <c r="J8">
-        <v>10.53617830776234</v>
+        <v>6.910711930056042</v>
       </c>
       <c r="K8">
-        <v>14.31079653714764</v>
+        <v>11.84165297976692</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.09946322363903</v>
+        <v>14.23870756598615</v>
       </c>
       <c r="C9">
-        <v>11.09749836741337</v>
+        <v>12.34731814293128</v>
       </c>
       <c r="D9">
-        <v>5.723197490012542</v>
+        <v>3.642823203195719</v>
       </c>
       <c r="E9">
-        <v>12.31965864233347</v>
+        <v>9.569440992847213</v>
       </c>
       <c r="F9">
-        <v>50.26823920801485</v>
+        <v>47.58948509256808</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>33.8865981869458</v>
+        <v>30.39563814758131</v>
       </c>
       <c r="J9">
-        <v>10.534520002061</v>
+        <v>7.23528876409591</v>
       </c>
       <c r="K9">
-        <v>14.52213189331218</v>
+        <v>13.84660347198508</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.34888342351625</v>
+        <v>15.62866895432901</v>
       </c>
       <c r="C10">
-        <v>11.3525554958027</v>
+        <v>13.46236356707298</v>
       </c>
       <c r="D10">
-        <v>5.697508689806755</v>
+        <v>3.921631708520161</v>
       </c>
       <c r="E10">
-        <v>12.37595531932182</v>
+        <v>10.20850020491363</v>
       </c>
       <c r="F10">
-        <v>50.84839111424846</v>
+        <v>50.29181783940165</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>34.16297236067171</v>
+        <v>31.72251812026042</v>
       </c>
       <c r="J10">
-        <v>10.54143688829296</v>
+        <v>7.490094851880129</v>
       </c>
       <c r="K10">
-        <v>14.69584022476559</v>
+        <v>15.19584190273847</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.46532206065583</v>
+        <v>16.23458032304253</v>
       </c>
       <c r="C11">
-        <v>11.47012957071416</v>
+        <v>13.98631311342165</v>
       </c>
       <c r="D11">
-        <v>5.687626214346906</v>
+        <v>4.043020076428411</v>
       </c>
       <c r="E11">
-        <v>12.40464562244898</v>
+        <v>10.49722921546555</v>
       </c>
       <c r="F11">
-        <v>51.11872631340367</v>
+        <v>51.52073736960764</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>34.29240080880835</v>
+        <v>32.33351110294338</v>
       </c>
       <c r="J11">
-        <v>10.54634492011859</v>
+        <v>7.609671563331132</v>
       </c>
       <c r="K11">
-        <v>14.77859378814999</v>
+        <v>15.78440877128688</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.50979812393752</v>
+        <v>16.4603722386796</v>
       </c>
       <c r="C12">
-        <v>11.51483145700966</v>
+        <v>14.18216137079449</v>
       </c>
       <c r="D12">
-        <v>5.684143231824011</v>
+        <v>4.088220053226629</v>
       </c>
       <c r="E12">
-        <v>12.41594701778058</v>
+        <v>10.60625861818494</v>
       </c>
       <c r="F12">
-        <v>51.22196350732769</v>
+        <v>51.98603965207316</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>34.34192600303662</v>
+        <v>32.56598392972417</v>
       </c>
       <c r="J12">
-        <v>10.54845605109824</v>
+        <v>7.65549307296744</v>
       </c>
       <c r="K12">
-        <v>14.81044227488538</v>
+        <v>16.0038086707259</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.50020307610806</v>
+        <v>16.41190400272292</v>
       </c>
       <c r="C13">
-        <v>11.50519682465429</v>
+        <v>14.14009379242753</v>
       </c>
       <c r="D13">
-        <v>5.684881823784922</v>
+        <v>4.078519270147016</v>
       </c>
       <c r="E13">
-        <v>12.41349372621859</v>
+        <v>10.58279091223898</v>
       </c>
       <c r="F13">
-        <v>51.19969187823919</v>
+        <v>51.8858306011573</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>34.3312373464147</v>
+        <v>32.51586671531159</v>
       </c>
       <c r="J13">
-        <v>10.54799016160064</v>
+        <v>7.645600282142365</v>
       </c>
       <c r="K13">
-        <v>14.80356079658742</v>
+        <v>15.95670914547617</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.4689737087073</v>
+        <v>16.25322872364933</v>
       </c>
       <c r="C14">
-        <v>11.4738038785141</v>
+        <v>14.00247625771681</v>
       </c>
       <c r="D14">
-        <v>5.687334471155041</v>
+        <v>4.046753981254509</v>
       </c>
       <c r="E14">
-        <v>12.40556667337917</v>
+        <v>10.50620531067294</v>
       </c>
       <c r="F14">
-        <v>51.127202649197</v>
+        <v>51.55901910706358</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>34.29646509946354</v>
+        <v>32.35261433467434</v>
       </c>
       <c r="J14">
-        <v>10.54651354707115</v>
+        <v>7.61343039907271</v>
       </c>
       <c r="K14">
-        <v>14.78120387912789</v>
+        <v>15.80252773492669</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.44989340199574</v>
+        <v>16.15556416158631</v>
       </c>
       <c r="C15">
-        <v>11.45459684143361</v>
+        <v>13.9178518330848</v>
       </c>
       <c r="D15">
-        <v>5.688870553743785</v>
+        <v>4.027197429041086</v>
       </c>
       <c r="E15">
-        <v>12.40076784677548</v>
+        <v>10.45925429137275</v>
       </c>
       <c r="F15">
-        <v>51.08291213005906</v>
+        <v>51.35883048382962</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>34.27523237399387</v>
+        <v>32.25276290820626</v>
       </c>
       <c r="J15">
-        <v>10.54564194523873</v>
+        <v>7.593796287142489</v>
       </c>
       <c r="K15">
-        <v>14.76757546846945</v>
+        <v>15.70763889612033</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.34132996057756</v>
+        <v>15.588551955288</v>
       </c>
       <c r="C16">
-        <v>11.34489917373827</v>
+        <v>13.42775741952384</v>
       </c>
       <c r="D16">
-        <v>5.698190821969066</v>
+        <v>3.913590426332792</v>
       </c>
       <c r="E16">
-        <v>12.37414183263199</v>
+        <v>10.18958894480696</v>
       </c>
       <c r="F16">
-        <v>50.83084851617996</v>
+        <v>50.21149500012966</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>34.15458682578272</v>
+        <v>31.6827397619175</v>
       </c>
       <c r="J16">
-        <v>10.54115152320783</v>
+        <v>7.48235499874471</v>
       </c>
       <c r="K16">
-        <v>14.69050506165092</v>
+        <v>15.15688269694882</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.27546039875709</v>
+        <v>15.23404557334749</v>
       </c>
       <c r="C17">
-        <v>11.27796854807897</v>
+        <v>13.12696922610577</v>
       </c>
       <c r="D17">
-        <v>5.704370418745464</v>
+        <v>3.842512242537825</v>
       </c>
       <c r="E17">
-        <v>12.35859259368253</v>
+        <v>10.02362900624717</v>
       </c>
       <c r="F17">
-        <v>50.67782082162494</v>
+        <v>49.5075149528963</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>34.08151008609278</v>
+        <v>31.33496108692456</v>
       </c>
       <c r="J17">
-        <v>10.538847480401</v>
+        <v>7.414935839562313</v>
       </c>
       <c r="K17">
-        <v>14.64416327253779</v>
+        <v>14.81265568525338</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.23785680620009</v>
+        <v>15.02764978291831</v>
       </c>
       <c r="C18">
-        <v>11.23962004424559</v>
+        <v>12.96414402204122</v>
       </c>
       <c r="D18">
-        <v>5.708094520389976</v>
+        <v>3.801116515609161</v>
       </c>
       <c r="E18">
-        <v>12.34993944710568</v>
+        <v>9.927986668533944</v>
       </c>
       <c r="F18">
-        <v>50.5904112167123</v>
+        <v>49.10256408562532</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>34.03982817041989</v>
+        <v>31.13561934083373</v>
       </c>
       <c r="J18">
-        <v>10.53768811043357</v>
+        <v>7.376501919185238</v>
       </c>
       <c r="K18">
-        <v>14.61786162931312</v>
+        <v>14.61228308506333</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.22517480871217</v>
+        <v>14.95733544669903</v>
       </c>
       <c r="C19">
-        <v>11.22666268415799</v>
+        <v>12.9088069764455</v>
       </c>
       <c r="D19">
-        <v>5.709384593682311</v>
+        <v>3.787012025506958</v>
       </c>
       <c r="E19">
-        <v>12.34705968346387</v>
+        <v>9.895572740621223</v>
       </c>
       <c r="F19">
-        <v>50.56092191466207</v>
+        <v>48.9654491971489</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>34.02577605566789</v>
+        <v>31.06824363348284</v>
       </c>
       <c r="J19">
-        <v>10.53732407341582</v>
+        <v>7.363547574717458</v>
       </c>
       <c r="K19">
-        <v>14.60901771337336</v>
+        <v>14.54402693083034</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.2824433761639</v>
+        <v>15.27204043061886</v>
       </c>
       <c r="C20">
-        <v>11.28507840244622</v>
+        <v>13.15700631654493</v>
       </c>
       <c r="D20">
-        <v>5.703695020556138</v>
+        <v>3.850131672000016</v>
       </c>
       <c r="E20">
-        <v>12.36021782663762</v>
+        <v>10.04131525038111</v>
       </c>
       <c r="F20">
-        <v>50.69404837011796</v>
+        <v>49.58245927449229</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>34.08925315400219</v>
+        <v>31.37191096936287</v>
       </c>
       <c r="J20">
-        <v>10.53907558927601</v>
+        <v>7.422077061547369</v>
       </c>
       <c r="K20">
-        <v>14.64906008822743</v>
+        <v>14.84954477662245</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.47813648647527</v>
+        <v>16.29993346069629</v>
       </c>
       <c r="C21">
-        <v>11.48302022954024</v>
+        <v>14.04296634479956</v>
       </c>
       <c r="D21">
-        <v>5.686607032723112</v>
+        <v>4.056104898626987</v>
       </c>
       <c r="E21">
-        <v>12.40788323164412</v>
+        <v>10.52870872951642</v>
       </c>
       <c r="F21">
-        <v>51.14847141603823</v>
+        <v>51.65501296230852</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>34.30666477420658</v>
+        <v>32.40053510507025</v>
       </c>
       <c r="J21">
-        <v>10.54694041657399</v>
+        <v>7.622864672204416</v>
       </c>
       <c r="K21">
-        <v>14.78775697173695</v>
+        <v>15.84790768904243</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.60824641611644</v>
+        <v>16.95050128170566</v>
       </c>
       <c r="C22">
-        <v>11.61341104720637</v>
+        <v>14.60838419555691</v>
       </c>
       <c r="D22">
-        <v>5.676950339485074</v>
+        <v>4.186258037490884</v>
       </c>
       <c r="E22">
-        <v>12.44157930171674</v>
+        <v>10.84546975494623</v>
       </c>
       <c r="F22">
-        <v>51.45049017528974</v>
+        <v>53.00923086452286</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>34.45173907222832</v>
+        <v>33.07927142982957</v>
       </c>
       <c r="J22">
-        <v>10.55355223919295</v>
+        <v>7.757251335054054</v>
       </c>
       <c r="K22">
-        <v>14.88137248592563</v>
+        <v>16.48020443287895</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.53861661795755</v>
+        <v>16.60517215248046</v>
       </c>
       <c r="C23">
-        <v>11.54373948348968</v>
+        <v>14.30792656747228</v>
       </c>
       <c r="D23">
-        <v>5.681966052215012</v>
+        <v>4.117195245250281</v>
       </c>
       <c r="E23">
-        <v>12.42336443565161</v>
+        <v>10.67657281230899</v>
       </c>
       <c r="F23">
-        <v>51.28885610658492</v>
+        <v>52.28647104821138</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>34.37404380828264</v>
+        <v>32.71640341327593</v>
       </c>
       <c r="J23">
-        <v>10.54988900472107</v>
+        <v>7.685231517205726</v>
       </c>
       <c r="K23">
-        <v>14.83114504497181</v>
+        <v>16.14453076688807</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.279285541068</v>
+        <v>15.2548710189207</v>
       </c>
       <c r="C24">
-        <v>11.28186362655091</v>
+        <v>13.14343051782157</v>
       </c>
       <c r="D24">
-        <v>5.703999834285578</v>
+        <v>3.846688585928625</v>
       </c>
       <c r="E24">
-        <v>12.35948216654467</v>
+        <v>10.03332001320287</v>
       </c>
       <c r="F24">
-        <v>50.68671012168493</v>
+        <v>49.54857764086858</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>34.08575148084675</v>
+        <v>31.35520405866135</v>
       </c>
       <c r="J24">
-        <v>10.5389719464575</v>
+        <v>7.418847499826279</v>
       </c>
       <c r="K24">
-        <v>14.64684517417802</v>
+        <v>14.83287492880533</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.01054333336251</v>
+        <v>13.70257616746875</v>
       </c>
       <c r="C25">
-        <v>11.00523134630721</v>
+        <v>11.93354202056185</v>
       </c>
       <c r="D25">
-        <v>5.734256494136774</v>
+        <v>3.535236169473284</v>
       </c>
       <c r="E25">
-        <v>12.30169429674718</v>
+        <v>9.332594490055266</v>
       </c>
       <c r="F25">
-        <v>50.06064657146927</v>
+        <v>46.59442371227561</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>33.78822663366952</v>
+        <v>29.91343448924635</v>
       </c>
       <c r="J25">
-        <v>10.53353860075532</v>
+        <v>7.144638645237839</v>
       </c>
       <c r="K25">
-        <v>14.46163248661007</v>
+        <v>13.32647287633409</v>
       </c>
       <c r="L25">
         <v>0</v>
